--- a/60000-80000.xlsx
+++ b/60000-80000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -119,6 +125,36 @@
   </si>
   <si>
     <t>Visma Løn &amp; HR</t>
+  </si>
+  <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Outsourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>Systemet (uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Ventetid på telefon)</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Fusionerer med anden virksomhed</t>
+  </si>
+  <si>
+    <t>Pris</t>
+  </si>
+  <si>
+    <t>DataLøn</t>
+  </si>
+  <si>
+    <t>Zenegy</t>
   </si>
   <si>
     <t>60000-80000</t>
@@ -483,13 +519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,10 +544,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -520,18 +562,21 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -540,18 +585,24 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -560,18 +611,21 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2">
         <v>44314</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -580,18 +634,21 @@
         <v>74992</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -600,18 +657,21 @@
         <v>79410</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>44355</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -620,18 +680,24 @@
         <v>78696</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2">
         <v>44371</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -640,18 +706,21 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>44463</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -660,18 +729,21 @@
         <v>72674.92</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>44469</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -680,18 +752,24 @@
         <v>61133.08</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>44498</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -700,18 +778,21 @@
         <v>77675.48</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>44498</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -720,18 +801,21 @@
         <v>65365</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>44530</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -740,18 +824,21 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>44592</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -760,18 +847,21 @@
         <v>78090</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
         <v>44602</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -780,18 +870,21 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2">
         <v>44617</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>2022</v>
@@ -800,18 +893,21 @@
         <v>73747</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2">
         <v>44617</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2022</v>
@@ -820,18 +916,21 @@
         <v>61008</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2">
         <v>44811</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>2022</v>
@@ -840,18 +939,21 @@
         <v>61182</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2">
         <v>44858</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>2022</v>
@@ -860,18 +962,21 @@
         <v>71046</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2">
         <v>44865</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -880,18 +985,21 @@
         <v>74171</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2">
         <v>45015</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -900,18 +1008,21 @@
         <v>71414.8</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <v>45029</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -920,18 +1031,21 @@
         <v>71077.63</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2">
         <v>45047</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -940,13 +1054,16 @@
         <v>76044</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2">
         <v>45072</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/60000-80000.xlsx
+++ b/60000-80000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -103,6 +106,18 @@
     <t>20309687</t>
   </si>
   <si>
+    <t>26688205</t>
+  </si>
+  <si>
+    <t>33372477</t>
+  </si>
+  <si>
+    <t>27276407</t>
+  </si>
+  <si>
+    <t>35480919</t>
+  </si>
+  <si>
     <t>Visma Expense</t>
   </si>
   <si>
@@ -127,6 +142,12 @@
     <t>Visma Løn &amp; HR</t>
   </si>
   <si>
+    <t>BPO Visma Løn og HR</t>
+  </si>
+  <si>
+    <t>BPO Visma Løn</t>
+  </si>
+  <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
   </si>
   <si>
@@ -148,13 +169,43 @@
     <t>Fusionerer med anden virksomhed</t>
   </si>
   <si>
-    <t>Pris</t>
-  </si>
-  <si>
     <t>DataLøn</t>
   </si>
   <si>
     <t>Zenegy</t>
+  </si>
+  <si>
+    <t>Lessor</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>60000-80000</t>
@@ -519,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,10 +601,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -562,21 +616,24 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -585,24 +642,27 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -611,21 +671,24 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
         <v>44314</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -634,21 +697,24 @@
         <v>74992</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -657,21 +723,24 @@
         <v>79410</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2">
         <v>44355</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -680,24 +749,27 @@
         <v>78696</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>44371</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -706,21 +778,24 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>44463</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -729,21 +804,24 @@
         <v>72674.92</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>44469</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -752,24 +830,27 @@
         <v>61133.08</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
         <v>44498</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -778,21 +859,24 @@
         <v>77675.48</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2">
         <v>44498</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -801,21 +885,24 @@
         <v>65365</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2">
         <v>44530</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -824,21 +911,24 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2">
         <v>44592</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>2022</v>
@@ -847,21 +937,24 @@
         <v>78090</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2">
         <v>44602</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -870,21 +963,24 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2">
         <v>44617</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2022</v>
@@ -893,21 +989,24 @@
         <v>73747</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
         <v>44617</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2022</v>
@@ -916,21 +1015,24 @@
         <v>61008</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2">
         <v>44811</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2022</v>
@@ -939,21 +1041,24 @@
         <v>61182</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
         <v>44858</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2022</v>
@@ -962,21 +1067,24 @@
         <v>71046</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2">
         <v>44865</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -985,21 +1093,21 @@
         <v>74171</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2">
         <v>45015</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="H20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -1008,21 +1116,21 @@
         <v>71414.8</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2">
         <v>45029</v>
       </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
       <c r="H21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -1031,21 +1139,21 @@
         <v>71077.63</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2">
         <v>45047</v>
       </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
       <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -1054,16 +1162,111 @@
         <v>76044</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2">
         <v>45072</v>
       </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>74972.74000000001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>70780</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>75401.86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>69120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45044</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/60000-80000.xlsx
+++ b/60000-80000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>CVR</t>
   </si>
@@ -118,6 +118,12 @@
     <t>35480919</t>
   </si>
   <si>
+    <t>45357716</t>
+  </si>
+  <si>
+    <t>33738811</t>
+  </si>
+  <si>
     <t>Visma Expense</t>
   </si>
   <si>
@@ -206,6 +212,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
   <si>
     <t>60000-80000</t>
@@ -570,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,19 +625,19 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -642,22 +651,22 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -671,19 +680,19 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
         <v>44314</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -697,19 +706,19 @@
         <v>74992</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -723,19 +732,19 @@
         <v>79410</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>44355</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -749,22 +758,22 @@
         <v>78696</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2">
         <v>44371</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -778,19 +787,19 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
         <v>44463</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -804,19 +813,19 @@
         <v>72674.92</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>44469</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -830,22 +839,22 @@
         <v>61133.08</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2">
         <v>44498</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -859,19 +868,19 @@
         <v>77675.48</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2">
         <v>44498</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -885,19 +894,19 @@
         <v>65365</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2">
         <v>44530</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -911,19 +920,19 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2">
         <v>44592</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -937,19 +946,19 @@
         <v>78090</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>44602</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -963,19 +972,19 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
         <v>44617</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -989,19 +998,19 @@
         <v>73747</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2">
         <v>44617</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1015,19 +1024,19 @@
         <v>61008</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2">
         <v>44811</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1041,19 +1050,19 @@
         <v>61182</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
         <v>44858</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1067,19 +1076,19 @@
         <v>71046</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2">
         <v>44865</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1093,16 +1102,16 @@
         <v>74171</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2">
         <v>45015</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1116,16 +1125,16 @@
         <v>71414.8</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2">
         <v>45029</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1139,16 +1148,16 @@
         <v>71077.63</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2">
         <v>45047</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1162,16 +1171,16 @@
         <v>76044</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2">
         <v>45072</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1185,16 +1194,16 @@
         <v>74972.74000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2">
         <v>45104</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1208,16 +1217,16 @@
         <v>70780</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2">
         <v>45145</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1231,19 +1240,19 @@
         <v>75401.86</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2">
         <v>45167</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1257,16 +1266,62 @@
         <v>69120</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
         <v>45044</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
+        <v>60860</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45168</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29">
+        <v>65688</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45211</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/60000-80000.xlsx
+++ b/60000-80000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
   <si>
     <t>CVR</t>
   </si>
@@ -124,6 +124,27 @@
     <t>33738811</t>
   </si>
   <si>
+    <t>45445216</t>
+  </si>
+  <si>
+    <t>35651950</t>
+  </si>
+  <si>
+    <t>30823699</t>
+  </si>
+  <si>
+    <t>29616647</t>
+  </si>
+  <si>
+    <t>10154529</t>
+  </si>
+  <si>
+    <t>24997189</t>
+  </si>
+  <si>
+    <t>10658446</t>
+  </si>
+  <si>
     <t>Visma Expense</t>
   </si>
   <si>
@@ -184,6 +205,9 @@
     <t>Lessor</t>
   </si>
   <si>
+    <t>Vil ikke oplyse</t>
+  </si>
+  <si>
     <t>2021Q1</t>
   </si>
   <si>
@@ -215,6 +239,15 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
   <si>
     <t>60000-80000</t>
@@ -579,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,19 +658,19 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -651,22 +684,22 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -680,19 +713,19 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>44314</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -706,19 +739,19 @@
         <v>74992</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -732,19 +765,19 @@
         <v>79410</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2">
         <v>44355</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -758,22 +791,22 @@
         <v>78696</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>44371</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -787,19 +820,19 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>44463</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -813,19 +846,19 @@
         <v>72674.92</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>44469</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -839,22 +872,22 @@
         <v>61133.08</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>44498</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -868,19 +901,19 @@
         <v>77675.48</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2">
         <v>44498</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -894,19 +927,19 @@
         <v>65365</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>44530</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -920,19 +953,19 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2">
         <v>44592</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -946,19 +979,19 @@
         <v>78090</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>44602</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -972,19 +1005,19 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
         <v>44617</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -998,19 +1031,19 @@
         <v>73747</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2">
         <v>44617</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1024,19 +1057,19 @@
         <v>61008</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2">
         <v>44811</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1050,19 +1083,19 @@
         <v>61182</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2">
         <v>44858</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1076,19 +1109,19 @@
         <v>71046</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
         <v>44865</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1102,16 +1135,16 @@
         <v>74171</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E20" s="2">
         <v>45015</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1125,16 +1158,16 @@
         <v>71414.8</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2">
         <v>45029</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1148,16 +1181,16 @@
         <v>71077.63</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2">
         <v>45047</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1171,16 +1204,16 @@
         <v>76044</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2">
         <v>45072</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1194,16 +1227,16 @@
         <v>74972.74000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2">
         <v>45104</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1217,16 +1250,16 @@
         <v>70780</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2">
         <v>45145</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1240,19 +1273,19 @@
         <v>75401.86</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2">
         <v>45167</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1266,16 +1299,16 @@
         <v>69120</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2">
         <v>45044</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1289,16 +1322,16 @@
         <v>60860</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2">
         <v>45168</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1312,16 +1345,180 @@
         <v>65688</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2">
         <v>45211</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30">
+        <v>76625</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45301</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31">
+        <v>66672</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45407</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32">
+        <v>78804</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45469</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>2024</v>
+      </c>
+      <c r="C33">
+        <v>60060</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45498</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34">
+        <v>67236</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45513</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35">
+        <v>69000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45551</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36">
+        <v>61860</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45561</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/60000-80000.xlsx
+++ b/60000-80000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>CVR</t>
   </si>
@@ -70,6 +70,9 @@
     <t>16664081</t>
   </si>
   <si>
+    <t>920510612</t>
+  </si>
+  <si>
     <t>69800211</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>31290937</t>
   </si>
   <si>
+    <t>869144140</t>
+  </si>
+  <si>
     <t>38136216</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>45445216</t>
   </si>
   <si>
+    <t>1271691736</t>
+  </si>
+  <si>
     <t>35651950</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t>EasyCruit</t>
   </si>
   <si>
+    <t>SKL NO</t>
+  </si>
+  <si>
     <t>BPO Løn og HR</t>
   </si>
   <si>
@@ -169,6 +181,9 @@
     <t>Visma Løn &amp; HR</t>
   </si>
   <si>
+    <t>SKL SE</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -196,10 +211,16 @@
     <t>Fusionerer med anden virksomhed</t>
   </si>
   <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
     <t>DataLøn</t>
   </si>
   <si>
     <t>Zenegy</t>
+  </si>
+  <si>
+    <t>Azets</t>
   </si>
   <si>
     <t>Lessor</t>
@@ -612,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,19 +679,19 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -684,22 +705,22 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -713,19 +734,19 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2">
         <v>44314</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -739,19 +760,19 @@
         <v>74992</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>44347</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -765,19 +786,19 @@
         <v>79410</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>44355</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -791,22 +812,22 @@
         <v>78696</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2">
         <v>44371</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -820,19 +841,19 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
         <v>44463</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -846,19 +867,19 @@
         <v>72674.92</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>44469</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -872,22 +893,22 @@
         <v>61133.08</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2">
         <v>44498</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -898,22 +919,25 @@
         <v>2021</v>
       </c>
       <c r="C11">
-        <v>77675.48</v>
+        <v>74156.7</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -924,22 +948,22 @@
         <v>2021</v>
       </c>
       <c r="C12">
-        <v>65365</v>
+        <v>77675.48</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2">
-        <v>44530</v>
+        <v>44498</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -947,25 +971,25 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C13">
-        <v>65843.74000000001</v>
+        <v>65365</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2">
-        <v>44592</v>
+        <v>44530</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -976,22 +1000,22 @@
         <v>2022</v>
       </c>
       <c r="C14">
-        <v>78090</v>
+        <v>65843.74000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
-        <v>44602</v>
+        <v>44592</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1002,48 +1026,48 @@
         <v>2022</v>
       </c>
       <c r="C15">
-        <v>79981.99000000001</v>
+        <v>78090</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2">
-        <v>44617</v>
+        <v>44602</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>73747</v>
+        <v>79981.99000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
         <v>44617</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1054,22 +1078,22 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>61008</v>
+        <v>73747</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2">
-        <v>44811</v>
+        <v>44617</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1080,22 +1104,22 @@
         <v>2022</v>
       </c>
       <c r="C18">
-        <v>61182</v>
+        <v>61008</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
-        <v>44858</v>
+        <v>44811</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1106,22 +1130,22 @@
         <v>2022</v>
       </c>
       <c r="C19">
-        <v>71046</v>
+        <v>61182</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
-        <v>44865</v>
+        <v>44858</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1129,22 +1153,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C20">
-        <v>74171</v>
+        <v>75638</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2">
-        <v>45015</v>
+        <v>44858</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1152,22 +1179,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C21">
-        <v>71414.8</v>
+        <v>71046</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2">
-        <v>45029</v>
+        <v>44865</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1178,19 +1208,19 @@
         <v>2023</v>
       </c>
       <c r="C22">
-        <v>71077.63</v>
+        <v>74171</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2">
-        <v>45047</v>
+        <v>45015</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1201,19 +1231,19 @@
         <v>2023</v>
       </c>
       <c r="C23">
-        <v>76044</v>
+        <v>71414.8</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2">
-        <v>45072</v>
+        <v>45029</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1224,19 +1254,19 @@
         <v>2023</v>
       </c>
       <c r="C24">
-        <v>74972.74000000001</v>
+        <v>71077.63</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2">
-        <v>45104</v>
+        <v>45047</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1247,19 +1277,19 @@
         <v>2023</v>
       </c>
       <c r="C25">
-        <v>70780</v>
+        <v>76044</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2">
-        <v>45145</v>
+        <v>45072</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1270,22 +1300,19 @@
         <v>2023</v>
       </c>
       <c r="C26">
-        <v>75401.86</v>
+        <v>74972.74000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2">
-        <v>45167</v>
-      </c>
-      <c r="G26" t="s">
-        <v>62</v>
+        <v>45104</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1296,19 +1323,19 @@
         <v>2023</v>
       </c>
       <c r="C27">
-        <v>69120</v>
+        <v>70780</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2">
-        <v>45044</v>
+        <v>45145</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1319,19 +1346,22 @@
         <v>2023</v>
       </c>
       <c r="C28">
-        <v>60860</v>
+        <v>75401.86</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2">
-        <v>45168</v>
+        <v>45167</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1342,19 +1372,19 @@
         <v>2023</v>
       </c>
       <c r="C29">
-        <v>65688</v>
+        <v>69120</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2">
-        <v>45211</v>
+        <v>45044</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1362,22 +1392,22 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C30">
-        <v>76625</v>
+        <v>60860</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2">
-        <v>45301</v>
+        <v>45168</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1385,22 +1415,22 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C31">
-        <v>66672</v>
+        <v>65688</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E31" s="2">
-        <v>45407</v>
+        <v>45211</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1411,22 +1441,19 @@
         <v>2024</v>
       </c>
       <c r="C32">
-        <v>78804</v>
+        <v>76625</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2">
-        <v>45469</v>
-      </c>
-      <c r="G32" t="s">
-        <v>63</v>
+        <v>45301</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1437,19 +1464,19 @@
         <v>2024</v>
       </c>
       <c r="C33">
-        <v>60060</v>
+        <v>74419</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2">
-        <v>45498</v>
+        <v>45306</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1460,19 +1487,19 @@
         <v>2024</v>
       </c>
       <c r="C34">
-        <v>67236</v>
+        <v>66672</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2">
-        <v>45513</v>
+        <v>45407</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1483,19 +1510,22 @@
         <v>2024</v>
       </c>
       <c r="C35">
-        <v>69000</v>
+        <v>78804</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2">
-        <v>45551</v>
+        <v>45469</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1506,19 +1536,88 @@
         <v>2024</v>
       </c>
       <c r="C36">
+        <v>60060</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45498</v>
+      </c>
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37">
+        <v>67236</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45513</v>
+      </c>
+      <c r="H37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38">
+        <v>69000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45551</v>
+      </c>
+      <c r="H38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39">
         <v>61860</v>
       </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
         <v>45561</v>
       </c>
-      <c r="H36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s">
-        <v>78</v>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
